--- a/Tabela/Cabo Frio/Cabo Frio-4.xlsx
+++ b/Tabela/Cabo Frio/Cabo Frio-4.xlsx
@@ -14,363 +14,393 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="129">
   <si>
     <t>Mensagem</t>
   </si>
   <si>
-    <t>Localização privilegiada de verdade. Com tudo perto, supermercado, shopping, farmácias, escolas, bares e restaurante...</t>
+    <t>pronto para morar</t>
   </si>
   <si>
     <t>super destaque</t>
   </si>
   <si>
+    <t>R$ 150.900</t>
+  </si>
+  <si>
+    <t>R$ 170.000</t>
+  </si>
+  <si>
     <t>destaque</t>
   </si>
   <si>
+    <t>R$ 190.000</t>
+  </si>
+  <si>
     <t>R$ 270.000</t>
   </si>
   <si>
     <t>R$ 250.000</t>
   </si>
   <si>
-    <t>R$ 105.000</t>
+    <t>R$ 200.000</t>
+  </si>
+  <si>
+    <t>R$ 320.000</t>
+  </si>
+  <si>
+    <t>R$ 5.250.000</t>
+  </si>
+  <si>
+    <t>R$ 99.000</t>
+  </si>
+  <si>
+    <t>R$ 430.000</t>
+  </si>
+  <si>
+    <t>R$ 85.000</t>
+  </si>
+  <si>
+    <t>IPTU R$ 400</t>
+  </si>
+  <si>
+    <t>Sua oportunidade de morar na região dos Lago está na aqui IMOBILIÁRIA CONFIANÇA.</t>
+  </si>
+  <si>
+    <t>R$ 157.000</t>
+  </si>
+  <si>
+    <t>R$ 220.000</t>
+  </si>
+  <si>
+    <t>TBF- Sua oportunidade de morar na região dos Lago está na aqui IMOBILIÁRIA CONFIANÇA.</t>
+  </si>
+  <si>
+    <t>AD- Sua oportunidade de morar na região dos Lago está na aqui IMOBILIÁRIA CONFIANÇA.</t>
+  </si>
+  <si>
+    <t>TBF- Sua oportunidade de morar na região dos Lago está aqui na IMOBILIÁRIA CONFIANÇA.</t>
+  </si>
+  <si>
+    <t>R$ 260.000</t>
+  </si>
+  <si>
+    <t>TBF - Imóvel com 2 quartos 1 suíte sala cozinha americana banheiro área gourmet churrasqueira chuveirão e piscina.</t>
+  </si>
+  <si>
+    <t>Linda Casa em Tamoios 2⁰ Distrito de Cabo Frio</t>
+  </si>
+  <si>
+    <t>R$ 495.000</t>
+  </si>
+  <si>
+    <t>R$ 300.000</t>
+  </si>
+  <si>
+    <t>deixe seu numero nossa equipe entrará em contato com você!</t>
+  </si>
+  <si>
+    <t>Está saindo no valor de R$320.000,00 mil, a vista ou entrada mais parcelas.</t>
+  </si>
+  <si>
+    <t>R$ 360.000</t>
+  </si>
+  <si>
+    <t>R$ 510.000</t>
+  </si>
+  <si>
+    <t>Casa localizada em Unamar, segundo distrito de Cabo Frio .</t>
+  </si>
+  <si>
+    <t>Um empreendimento único, incrivelmente exclusivo e de alto padrão.</t>
+  </si>
+  <si>
+    <t>Lindíssima casa 2 quartos em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 339 IPTU R$ 575</t>
+  </si>
+  <si>
+    <t>𝐂𝐚𝐬𝐚 𝐋𝐢𝐧𝐞𝐚𝐫 𝐩𝐨𝐫 𝐚𝐩𝐞𝐧𝐚𝐬 𝐑$ 𝟖𝟓 𝐌𝐈𝐋 !!!</t>
+  </si>
+  <si>
+    <t>A casa está localizado no bairro Samburá (Tamoios) tem 140 metros quadrados com 3 quartos e 2 banheiros, vaga para 2 carros e chuveirao. (imóvel vai ser entregue todo reformado , e...</t>
+  </si>
+  <si>
+    <t>IPTU R$ 10</t>
+  </si>
+  <si>
+    <t>IPTU R$ 240</t>
+  </si>
+  <si>
+    <t>Excelente Casa na Região Dos Lagos.</t>
+  </si>
+  <si>
+    <t>Casa de 2 quartos sendo 1 suíte, com piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
+  </si>
+  <si>
+    <t>condomínioR$ 330 IPTU R$ 550</t>
+  </si>
+  <si>
+    <t>DUAS CASAS LINDAS NO MESMO TERRENO PERTINHO DA PRAIA.............................</t>
+  </si>
+  <si>
+    <t>condomínioR$ 570 IPTU R$ 600</t>
+  </si>
+  <si>
+    <t>condomínioR$ 315 IPTU R$ 230</t>
+  </si>
+  <si>
+    <t>Ótimo apartamento com, ótima localização, composto por Cozinha, área de serviço, dependência de empregada, banheiro social, 2 quartos, próximo ao mercado extra do Braga. -</t>
+  </si>
+  <si>
+    <t>📍Imóvel Localizado em um ótimo Condomínio em Unamar.</t>
   </si>
   <si>
     <t>mais</t>
   </si>
   <si>
-    <t>R$ 2.800.000</t>
-  </si>
-  <si>
-    <t>R$ 95.000</t>
-  </si>
-  <si>
-    <t>R$ 120.000</t>
-  </si>
-  <si>
-    <t>R$ 149.990</t>
-  </si>
-  <si>
-    <t>R$ 400.000</t>
-  </si>
-  <si>
-    <t>R$ 390.000</t>
-  </si>
-  <si>
-    <t>Casa independente no Jardim Peró, terreno com 360m², possui 2 quartos, sala, cozinha, banheiro com blindex. Amplo quintal com área gourmet, vaga para 4 carros, jardim e hidromassag...</t>
-  </si>
-  <si>
-    <t>R$ 280.000</t>
-  </si>
-  <si>
-    <t>Casa com fino acabamento, localizado no condomínio Vivamar.</t>
-  </si>
-  <si>
-    <t>FAÇA JÁ SUA SIMULAÇÃO E NÃO PERCA ESSA OPORTUNIDADE!!!</t>
-  </si>
-  <si>
-    <t>R$ 300.000</t>
-  </si>
-  <si>
-    <t>R$ 177.999</t>
-  </si>
-  <si>
-    <t>R$ 220.000</t>
-  </si>
-  <si>
-    <t>R$ 480.000</t>
-  </si>
-  <si>
-    <t>R$ 178.000</t>
-  </si>
-  <si>
-    <t>R$ 185.000</t>
-  </si>
-  <si>
-    <t>Rua Theófilo Costa, Jardim Camburi</t>
-  </si>
-  <si>
-    <t>Imóvel de alto padrão de frente para o mar no foguete em Cabo Frio</t>
-  </si>
-  <si>
-    <t>Excelente casa de 2 quartos proximo à rodovia em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Excelente casa de 2 quartos e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com a Jéssica Marques Corretora de Imóveis</t>
-  </si>
-  <si>
-    <t>Duplex na Rodoviária Amaral Peixoto</t>
-  </si>
-  <si>
-    <t>IPTU R$ 480</t>
-  </si>
-  <si>
-    <t>Casa localizada no Condomínio Sta. Margarida, composta por:</t>
-  </si>
-  <si>
-    <t>Composta por:</t>
-  </si>
-  <si>
-    <t>IPTU R$ 250</t>
-  </si>
-  <si>
-    <t>FINANCIAMENTO DIRETO COM A CONSTRUTORA.</t>
-  </si>
-  <si>
-    <t>IPTU R$ 200</t>
-  </si>
-  <si>
-    <t>A casa triplex está localizado no bairro Unamar (Tamoios) possui 200 metros quadrados com 3 quartos sendo 2 suites e 4 banheiros Já tem os móveis incluídos de frente para praia.</t>
+    <t>Casa em dois pavimentos.</t>
+  </si>
+  <si>
+    <t>Casa independente, com RGI, direto com proprietário!</t>
+  </si>
+  <si>
+    <t>Imóvel localizado na rua do DPO .</t>
+  </si>
+  <si>
+    <t>Imóvel pronta para morar no valor de 250 Mil a vista .</t>
+  </si>
+  <si>
+    <t>Casa possui 2 quartos</t>
+  </si>
+  <si>
+    <t>Casa em Cabo Frio Condomínio Residencial Leonor, ótima localização , fica ao lado da Inter TV de Cabo Frio, do centro e praias de Cabo Frio, fácil acesso para as estradas de Búzios...</t>
+  </si>
+  <si>
+    <t>Valor de R$200 mil Avista, ou entrada de 60% + parcelas de R$1.500</t>
+  </si>
+  <si>
+    <t>Casa pronta Aceita proposta</t>
+  </si>
+  <si>
+    <t>A casa no bairro Peró com 68 metros quadrados com 2 quartos sendo 2 suites e 1 banheiro</t>
+  </si>
+  <si>
+    <t>Vendo obra , EM FASE DE ACABAMENTO, FÁCIL DE ACABAR , no Condomínio dos Pássaros , Alameda 5 , 378 , Rolinhas , Pero 2 . Rua boa , com área de lazer e Restaurante no final dela . C...</t>
+  </si>
+  <si>
+    <t>- Ótima Localização dentro do condomínio.</t>
+  </si>
+  <si>
+    <t>Apresento uma proposta ousada de engenharia e arquitetura em uma das mais valorizadas e belas localizações...</t>
   </si>
   <si>
     <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis</t>
   </si>
   <si>
-    <t>M.Carvalho Imoveis vende</t>
-  </si>
-  <si>
-    <t>Linda casa 2 quartos com área gourmet e piscina em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>Maravilhosa casa com 3 quartos com piscina e área gourmet em Unamar, Tamoios - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>condomínio R$ 556</t>
-  </si>
-  <si>
-    <t>Maravilhosa casa com 2 quartos sendo 1 suíte com piscina e área gourmet em Unamar - Cabo Frio - RJ</t>
-  </si>
-  <si>
-    <t>34 - 92 m²</t>
-  </si>
-  <si>
-    <t>Imóvel espetacular triplex com 5 suítes!</t>
+    <t>Construção novíssima !</t>
+  </si>
+  <si>
+    <t>Avenida Independência, Sambura Tamoios</t>
+  </si>
+  <si>
+    <t>Primeiro pavimento:</t>
+  </si>
+  <si>
+    <t>Aceita financiamento bancário!</t>
+  </si>
+  <si>
+    <t>💢 Linda Casa em Tamoios 2⁰ Distrito de Cabo Fr...</t>
+  </si>
+  <si>
+    <t>Linda Casa em Tamoios 2⁰ Distrito de Cabo Frio...</t>
+  </si>
+  <si>
+    <t>2 quartos (1suite)</t>
+  </si>
+  <si>
+    <t>PRONTA PARA MORAR</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>SUA OPORTUNIDADE CHEGOU. CASA BEM LOCALIZADA EM AQUARIOS, PEROXIMO DA PRAIA DO CORAL ,,,COM...</t>
+  </si>
+  <si>
+    <t>Imóvel com:</t>
+  </si>
+  <si>
+    <t>Excelente casa em condomínio fechado com área de lazer.</t>
+  </si>
+  <si>
+    <t>- Todo Comércio próximo ao imóvel.</t>
   </si>
   <si>
     <t>CRECI/RJ: 075.292</t>
   </si>
   <si>
-    <t>Unamar - Cabo Frio</t>
-  </si>
-  <si>
-    <t>Ótimo imóvel bem localizado junto ao centro comercial entre Buzius e Rio das ostras com casa principal e mais casa de hóspedes ,ambas mobiliada ,com churrasqueira ,quintal arboriza...</t>
-  </si>
-  <si>
-    <t>Rua Praia da Ferradura, Caminho de Buzios</t>
-  </si>
-  <si>
-    <t>✅2 Suítes</t>
-  </si>
-  <si>
-    <t>✅ 2 quartos, sendo 1 suíte</t>
-  </si>
-  <si>
-    <t>Excelente casa no Jardim Caiçara, Px ao comércio, bancos e mercado.</t>
-  </si>
-  <si>
-    <t>COD: BRM0200</t>
-  </si>
-  <si>
-    <t>Imovel Grande, prox.de Praia e comercios.</t>
-  </si>
-  <si>
-    <t>Apartamento modernizado com Varanda, Sala 2 ambientes, piso porcelanato, 2 quartos sendo 1 suite, ambos com armários planejados, 2 banheiros com bancada em granito e blindex, coxin...</t>
-  </si>
-  <si>
-    <t>1 - 3</t>
-  </si>
-  <si>
-    <t>Terreno com mais de 1300m2 e 1000 de área construída.</t>
-  </si>
-  <si>
-    <t>Realize o sonho da casa própria com A.J. Sant?anna Corretor de Imóveis</t>
-  </si>
-  <si>
-    <t>55 m²</t>
-  </si>
-  <si>
-    <t>✅banheiro social</t>
-  </si>
-  <si>
-    <t>✅sala</t>
-  </si>
-  <si>
-    <t>1° andar: Salão, sala de jantar, banheiro, cozinha planejada, área de serviço, garagem para 3 carros, churras...</t>
-  </si>
-  <si>
-    <t>ENTRADA+PARCELAS.</t>
+    <t>Rua Marrocos, Parque Central</t>
+  </si>
+  <si>
+    <t>Casa composta por : 𝟏 𝐐𝐮𝐚𝐫�...</t>
+  </si>
+  <si>
+    <t>140 m²</t>
+  </si>
+  <si>
+    <t>Linda Casa em Tamoios 2⁰ Distrito de Cabo Frio &lt;...</t>
+  </si>
+  <si>
+    <t>Sala, cozinha, banheiro, área de serviço, área gourmet e garagem para 3 carros.</t>
+  </si>
+  <si>
+    <t>A casa possui 2 quartos (1suíte), sala, cozinha americana, 2 banheiros, área de serviço,...</t>
+  </si>
+  <si>
+    <t>Unamar, Cabo Frio</t>
+  </si>
+  <si>
+    <t>Cozinha americana</t>
+  </si>
+  <si>
+    <t>Avenida Wilson Mendes, Porto do Carro</t>
+  </si>
+  <si>
+    <t>2 quartos (sendo 1 suíte)</t>
+  </si>
+  <si>
+    <t>Casa com:</t>
+  </si>
+  <si>
+    <t>Localizada no Caminho Verde c...</t>
+  </si>
+  <si>
+    <t>Rua do Guriri, Peró</t>
+  </si>
+  <si>
+    <t>- Casa próxima a praia.</t>
+  </si>
+  <si>
+    <t>Rua Paulo Miled, Barro Vermelho</t>
+  </si>
+  <si>
+    <t>80 m²</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Segundo pavimento:</t>
+  </si>
+  <si>
+    <t>Cozinha</t>
+  </si>
+  <si>
+    <t>Realize o sonho da sua casa da praia com a Jéssica M...</t>
+  </si>
+  <si>
+    <t>77 m²</t>
+  </si>
+  <si>
+    <t>Banheiro</t>
+  </si>
+  <si>
+    <t>118 m²</t>
   </si>
   <si>
     <t>Avenida Independência, Unamar</t>
   </si>
   <si>
-    <t>perto do shopping, e da area de eventos, escolas, bancos e hospital.</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Imóveis...</t>
-  </si>
-  <si>
-    <t>Realize o sonho da sua casa da praia com a Jéssica Marques Corretora de Im...</t>
-  </si>
-  <si>
-    <t>1 - 2</t>
-  </si>
-  <si>
-    <t>No prime...</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 01 074....</t>
-  </si>
-  <si>
-    <t>CRECI/RJ: 01 074.516...</t>
-  </si>
-  <si>
-    <t>Cód: JMC-004</t>
-  </si>
-  <si>
-    <t>* 3 Quartos (sendo 1 suíte com closet)</t>
-  </si>
-  <si>
-    <t>Rua Pôr do Sol, Aquariús</t>
+    <t>3 quartos (sendo 02 suite)</t>
+  </si>
+  <si>
+    <t>234 m²</t>
+  </si>
+  <si>
+    <t>- Ca...</t>
+  </si>
+  <si>
+    <t>480 m²</t>
+  </si>
+  <si>
+    <t>Cód...</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>✅cozinha americana</t>
-  </si>
-  <si>
-    <t>CASA COMPOSTA POR 3 QUARTOS SENDO 1 SUÍTE, SALA, COZINHA, BANHEIRO SOCIAL, POÇO ARTESIANO, ÁREA DE SERVIÇO E VAGA PARA CARRO. ESTRUTURA PARA MAIS UM ANDAR, TERR...</t>
-  </si>
-  <si>
-    <t>200 m²</t>
-  </si>
-  <si>
-    <t>Cód: JMC-031-1</t>
-  </si>
-  <si>
-    <t>Cód: JMC-031</t>
-  </si>
-  <si>
-    <t>CRECI/...</t>
-  </si>
-  <si>
-    <t>Avenida Júlia Kubitschek, Centro</t>
-  </si>
-  <si>
-    <t>* Sala de estar, Sala de Jantar</t>
-  </si>
-  <si>
-    <t>250 m²</t>
+    <t>Rua das Pacas, Nova California Tamoios</t>
+  </si>
+  <si>
+    <t>3 quartos; 1 suíte com...</t>
+  </si>
+  <si>
+    <t>70 m²</t>
+  </si>
+  <si>
+    <t>2 quartos (sendo 1 suít...</t>
+  </si>
+  <si>
+    <t>Banheiro...</t>
+  </si>
+  <si>
+    <t>Garagem para 3 carro</t>
+  </si>
+  <si>
+    <t>120 m²</t>
+  </si>
+  <si>
+    <t>Avenida dos Pescadores, Peró</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>✅cozinha</t>
-  </si>
-  <si>
-    <t>Rua Espanha, Jardim Caiçara</t>
-  </si>
-  <si>
-    <t>Casa de 2 quartos; sala; cozinha; banheiro social...</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Sendo: 03 quartos / 03 suítes /...</t>
-  </si>
-  <si>
-    <t>97 m²</t>
-  </si>
-  <si>
-    <t>Foguete, Cabo Frio</t>
-  </si>
-  <si>
-    <t>Unamar, Cabo Frio</t>
-  </si>
-  <si>
-    <t>CASA LINEAR COMPOSTA POR 3 QUARTOS, SENDO 1 SUÍTE, SALA C...</t>
-  </si>
-  <si>
-    <t>* Cozinha e Copa</t>
-  </si>
-  <si>
-    <t>✅área de serviço</t>
-  </si>
-  <si>
-    <t>✅área gourmet com c...</t>
-  </si>
-  <si>
-    <t>150 m²</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>CASA LINEAR COMPOSTA POR 3 QUARTOS SENDO 1 SUÍTE,...</t>
-  </si>
-  <si>
-    <t>CASA LINEAR COMPOSTA POR 3 QUARTOS SENDO 1 SUÍTE, SA...</t>
-  </si>
-  <si>
-    <t>164 m²</t>
+    <t>42 m²</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Chuveirão</t>
+  </si>
+  <si>
+    <t>66 m²</t>
+  </si>
+  <si>
+    <t>Banhei...</t>
+  </si>
+  <si>
+    <t>68 m²</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Travessa Capivara, Unamar</t>
+  </si>
+  <si>
+    <t>100 m²</t>
+  </si>
+  <si>
+    <t>Área Gourmet</t>
+  </si>
+  <si>
+    <t>73 m²</t>
+  </si>
+  <si>
+    <t>65 m²</t>
   </si>
   <si>
     <t>69 m²</t>
   </si>
   <si>
-    <t>1000 m²</t>
-  </si>
-  <si>
-    <t>61 m²</t>
-  </si>
-  <si>
-    <t>60 m²</t>
-  </si>
-  <si>
-    <t>* 4 banheiros</t>
-  </si>
-  <si>
-    <t>medindo90m² , Local seguro e tranquilo .</t>
-  </si>
-  <si>
-    <t>98 m²</t>
-  </si>
-  <si>
-    <t>67 m²</t>
-  </si>
-  <si>
-    <t>71 m²</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>*...</t>
-  </si>
-  <si>
-    <t>Rua Cherne, Vivamar Tamoios</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>85 m²</t>
-  </si>
-  <si>
-    <t>Rua Mergulhão, Santa Margarida II Tamoios</t>
-  </si>
-  <si>
-    <t>90 m²</t>
-  </si>
-  <si>
-    <t>400 m²</t>
+    <t>Ótim...</t>
   </si>
 </sst>
 </file>
@@ -728,13 +758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -786,31 +816,16 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -818,43 +833,37 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M3" t="s">
         <v>91</v>
       </c>
-      <c r="K3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -865,37 +874,40 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="N4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>104</v>
+      </c>
+      <c r="O4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -906,37 +918,34 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -944,43 +953,43 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>88</v>
-      </c>
-      <c r="P6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -991,49 +1000,31 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>88</v>
-      </c>
-      <c r="R7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1041,37 +1032,37 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>104</v>
+      </c>
+      <c r="M8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1079,31 +1070,49 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1111,52 +1120,43 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
         <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="M10" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P10" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1164,49 +1164,37 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
-      </c>
-      <c r="N11" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" t="s">
-        <v>98</v>
-      </c>
-      <c r="P11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1214,40 +1202,43 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="J12" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>127</v>
+      </c>
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1258,37 +1249,34 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="K13" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M13" t="s">
-        <v>74</v>
-      </c>
-      <c r="N13" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1296,40 +1284,43 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
       </c>
       <c r="H14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="K14" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="N14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>104</v>
+      </c>
+      <c r="O14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1337,34 +1328,40 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" t="s">
         <v>98</v>
       </c>
-      <c r="K15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="L15" t="s">
+        <v>123</v>
+      </c>
+      <c r="M15" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" t="s">
+        <v>104</v>
+      </c>
+      <c r="O15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1372,43 +1369,34 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>95</v>
       </c>
       <c r="J16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="L16" t="s">
-        <v>63</v>
-      </c>
-      <c r="M16" t="s">
-        <v>77</v>
-      </c>
-      <c r="N16" t="s">
-        <v>88</v>
-      </c>
-      <c r="O16" t="s">
-        <v>84</v>
-      </c>
-      <c r="P16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1416,43 +1404,55 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="J17" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="L17" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="N17" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>98</v>
+      </c>
+      <c r="P17" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>104</v>
+      </c>
+      <c r="R17" t="s">
+        <v>113</v>
+      </c>
+      <c r="S17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1460,43 +1460,37 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
-      </c>
-      <c r="M18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" t="s">
-        <v>88</v>
-      </c>
-      <c r="O18" t="s">
-        <v>84</v>
-      </c>
-      <c r="P18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1504,40 +1498,37 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="K19" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
-      </c>
-      <c r="N19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1545,37 +1536,40 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="I20" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="M20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>91</v>
+      </c>
+      <c r="N20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1583,37 +1577,46 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" t="s">
         <v>81</v>
       </c>
-      <c r="I21" t="s">
+      <c r="N21" t="s">
         <v>90</v>
       </c>
-      <c r="J21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1621,40 +1624,43 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="J22" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="L22" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="N22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1662,34 +1668,78 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="K23" t="s">
-        <v>74</v>
+        <v>121</v>
       </c>
       <c r="L23" t="s">
-        <v>84</v>
-      </c>
-      <c r="M23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" t="s">
         <v>88</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" t="s">
+        <v>113</v>
+      </c>
+      <c r="O24" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
